--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Case</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>K-ELECTRIC</t>
+  </si>
+  <si>
+    <t>company_code_value</t>
+  </si>
+  <si>
+    <t>tran_pass_value</t>
+  </si>
+  <si>
+    <t>KESC0001</t>
+  </si>
+  <si>
+    <t>pakistan3</t>
   </si>
 </sst>
 </file>
@@ -413,11 +425,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -426,14 +436,16 @@
     <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="44.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,26 +464,32 @@
       <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -490,22 +508,28 @@
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2">
         <v>12345</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
@@ -30,9 +30,6 @@
     <t>status_query</t>
   </si>
   <si>
-    <t>DB_Value</t>
-  </si>
-  <si>
     <t>OTP_Value</t>
   </si>
   <si>
@@ -60,12 +57,6 @@
     <t>SELECT DT.TRANSACTION_AMOUNT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
   </si>
   <si>
-    <t>QAT_BPS</t>
-  </si>
-  <si>
-    <t>QADB</t>
-  </si>
-  <si>
     <t>SELECT DT.BILL_COMPANY FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
   </si>
   <si>
@@ -100,6 +91,15 @@
   </si>
   <si>
     <t>pakistan3</t>
+  </si>
+  <si>
+    <t>DIGITAL_CHANNEL_SEC</t>
+  </si>
+  <si>
+    <t>status_query2</t>
+  </si>
+  <si>
+    <t>BEGIN UPDATE DC_SCHEDULED_TRAN_MASTER STM SET STM.STATE = 46 , STM.IS_DELETED = 1 WHERE STM.BILL_BENEFICIARY_ID = (SELECT BPB.BENEFICIARY_ID FROM DC_BILL_PAYMENT_BENEFICIARY BPB WHERE BPB.CONSUMER_NUMBER = '0400000069505' AND BPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY') AND BPB.IS_ACTIVE = 1);COMMIT;END;</t>
   </si>
 </sst>
 </file>
@@ -427,13 +427,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="44.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44.42578125" style="1" customWidth="1"/>
@@ -453,40 +455,40 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
       <c r="N1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -494,43 +496,43 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H2">
         <v>12345</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
@@ -99,7 +99,7 @@
     <t>status_query2</t>
   </si>
   <si>
-    <t>BEGIN UPDATE DC_SCHEDULED_TRAN_MASTER STM SET STM.STATE = 46 , STM.IS_DELETED = 1 WHERE STM.BILL_BENEFICIARY_ID = (SELECT BPB.BENEFICIARY_ID FROM DC_BILL_PAYMENT_BENEFICIARY BPB WHERE BPB.CONSUMER_NUMBER = '0400000069505' AND BPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY') AND BPB.IS_ACTIVE = 1);COMMIT;END;</t>
+    <t>BEGIN UPDATE DC_SCHEDULED_TRAN_MASTER STM SET STM.STATE = 46 , STM.IS_DELETED = 1 WHERE STM.BILL_BENEFICIARY_ID = (SELECT BPB.BENEFICIARY_ID FROM DC_BILL_PAYMENT_BENEFICIARY BPB WHERE BPB.CONSUMER_NUMBER = '0400000069505' AND BPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY') AND BPB.IS_ACTIVE = 1);UPDATE DC_BILL_PAYMENT_BENEFICIARY DPB SET DPB.IS_SI_SCHEDULED = 0,DPB.IS_ACTIVE = 0 WHERE DPB.CONSUMER_NUMBER = '0400000069505' AND DPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY') AND DPB.IS_ACTIVE = 1;COMMIT;END;</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Case</t>
   </si>
@@ -45,12 +45,6 @@
     <t>consumer_no_query</t>
   </si>
   <si>
-    <t>UPDATE LP_BILLS L SET L.BILL_STATUS_ID=1 , L.DUE_DATE=TRUNC(SYSDATE) WHERE L.CONSUMER_NO='0400000069505'</t>
-  </si>
-  <si>
-    <t>0400000069505</t>
-  </si>
-  <si>
     <t>db_val</t>
   </si>
   <si>
@@ -99,7 +93,25 @@
     <t>status_query2</t>
   </si>
   <si>
-    <t>BEGIN UPDATE DC_SCHEDULED_TRAN_MASTER STM SET STM.STATE = 46 , STM.IS_DELETED = 1 WHERE STM.BILL_BENEFICIARY_ID = (SELECT BPB.BENEFICIARY_ID FROM DC_BILL_PAYMENT_BENEFICIARY BPB WHERE BPB.CONSUMER_NUMBER = '0400000069505' AND BPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY') AND BPB.IS_ACTIVE = 1);UPDATE DC_BILL_PAYMENT_BENEFICIARY DPB SET DPB.IS_SI_SCHEDULED = 0,DPB.IS_ACTIVE = 0 WHERE DPB.CONSUMER_NUMBER = '0400000069505' AND DPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY') AND DPB.IS_ACTIVE = 1;COMMIT;END;</t>
+    <t>Bill_Amount_query</t>
+  </si>
+  <si>
+    <t>UPDATE LP_BILLS L SET L.BILL_STATUS_ID=1 , L.DUE_DATE=TRUNC(SYSDATE) WHERE L.CONSUMER_NO='0400017352782'</t>
+  </si>
+  <si>
+    <t>BEGIN UPDATE DC_SCHEDULED_TRAN_MASTER STM SET STM.STATE = 46 , STM.IS_DELETED = 1 WHERE STM.BILL_BENEFICIARY_ID = (SELECT BPB.BENEFICIARY_ID FROM DC_BILL_PAYMENT_BENEFICIARY BPB WHERE BPB.CONSUMER_NUMBER = '0400017352782' AND BPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY') AND BPB.IS_ACTIVE = 1);UPDATE DC_BILL_PAYMENT_BENEFICIARY DPB SET DPB.IS_SI_SCHEDULED = 0,DPB.IS_ACTIVE = 0 WHERE DPB.CONSUMER_NUMBER = '0400017352782' AND DPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY') AND DPB.IS_ACTIVE = 1;COMMIT;END;</t>
+  </si>
+  <si>
+    <t>db_val2</t>
+  </si>
+  <si>
+    <t>QAT_BPS</t>
+  </si>
+  <si>
+    <t>0400017352782</t>
+  </si>
+  <si>
+    <t>SELECT LB.BILL_AMOUNT,LB.COMPANY_CODE FROM LP_BILLS LB WHERE LB.CONSUMER_NO='0400017352782' ORDER BY LB.CREATED_ON DESC</t>
   </si>
 </sst>
 </file>
@@ -425,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,16 +450,16 @@
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="44.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="44.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,84 +467,96 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
       <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
-        <v>10</v>
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>12345</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" t="s">
         <v>22</v>
       </c>
-      <c r="H2">
-        <v>12345</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" t="s">
-        <v>24</v>
+      <c r="P2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Case</t>
   </si>
@@ -84,9 +84,6 @@
     <t>KESC0001</t>
   </si>
   <si>
-    <t>pakistan3</t>
-  </si>
-  <si>
     <t>DIGITAL_CHANNEL_SEC</t>
   </si>
   <si>
@@ -112,6 +109,15 @@
   </si>
   <si>
     <t>SELECT LB.BILL_AMOUNT,LB.COMPANY_CODE FROM LP_BILLS LB WHERE LB.CONSUMER_NO='0400017352782' ORDER BY LB.CREATED_ON DESC</t>
+  </si>
+  <si>
+    <t>pakistan2</t>
+  </si>
+  <si>
+    <t>tran_type_query</t>
+  </si>
+  <si>
+    <t>SELECT AC.DESCRIPTION FROM DC_TRANSACTION_ACTIVITY_CONFIG AC WHERE AC.TRANSACTION_TYPE_ID =(SELECT DT.TRANSACTION_TYPE_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
   </si>
 </sst>
 </file>
@@ -437,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,13 +459,14 @@
     <col min="7" max="8" width="44.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +474,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
         <v>14</v>
@@ -479,7 +486,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>18</v>
@@ -490,34 +497,37 @@
       <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" t="s">
-        <v>27</v>
+      <c r="Q1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>16</v>
@@ -526,10 +536,10 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>20</v>
@@ -538,25 +548,28 @@
         <v>12345</v>
       </c>
       <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" t="s">
-        <v>28</v>
+      <c r="Q2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>Case</t>
   </si>
   <si>
-    <t>When valid bill details are provided</t>
-  </si>
-  <si>
     <t>status_query</t>
   </si>
   <si>
@@ -69,62 +66,98 @@
     <t>Company_Value</t>
   </si>
   <si>
+    <t>company_code_value</t>
+  </si>
+  <si>
+    <t>tran_pass_value</t>
+  </si>
+  <si>
+    <t>DIGITAL_CHANNEL_SEC</t>
+  </si>
+  <si>
+    <t>status_query2</t>
+  </si>
+  <si>
+    <t>Bill_Amount_query</t>
+  </si>
+  <si>
+    <t>db_val2</t>
+  </si>
+  <si>
+    <t>QAT_BPS</t>
+  </si>
+  <si>
+    <t>pakistan2</t>
+  </si>
+  <si>
+    <t>tran_type_query</t>
+  </si>
+  <si>
+    <t>SELECT AC.DESCRIPTION FROM DC_TRANSACTION_ACTIVITY_CONFIG AC WHERE AC.TRANSACTION_TYPE_ID =(SELECT DT.TRANSACTION_TYPE_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>UPDATE LP_BILLS L SET L.BILL_STATUS_ID=1 , L.DUE_DATE=TRUNC(SYSDATE) WHERE L.CONSUMER_NO='{ConsumerNo}'</t>
+  </si>
+  <si>
+    <t>SELECT LB.BILL_AMOUNT,LB.COMPANY_CODE FROM LP_BILLS LB WHERE LB.CONSUMER_NO='{ConsumerNo}' ORDER BY LB.CREATED_ON DESC</t>
+  </si>
+  <si>
+    <t>account_no</t>
+  </si>
+  <si>
+    <t>schedule_type</t>
+  </si>
+  <si>
+    <t>maximum_amount</t>
+  </si>
+  <si>
     <t>Electricity Bill Payment</t>
   </si>
   <si>
-    <t>K-ELECTRIC</t>
-  </si>
-  <si>
-    <t>company_code_value</t>
-  </si>
-  <si>
-    <t>tran_pass_value</t>
-  </si>
-  <si>
-    <t>KESC0001</t>
-  </si>
-  <si>
-    <t>DIGITAL_CHANNEL_SEC</t>
-  </si>
-  <si>
-    <t>status_query2</t>
-  </si>
-  <si>
-    <t>Bill_Amount_query</t>
-  </si>
-  <si>
-    <t>UPDATE LP_BILLS L SET L.BILL_STATUS_ID=1 , L.DUE_DATE=TRUNC(SYSDATE) WHERE L.CONSUMER_NO='0400017352782'</t>
-  </si>
-  <si>
-    <t>BEGIN UPDATE DC_SCHEDULED_TRAN_MASTER STM SET STM.STATE = 46 , STM.IS_DELETED = 1 WHERE STM.BILL_BENEFICIARY_ID = (SELECT BPB.BENEFICIARY_ID FROM DC_BILL_PAYMENT_BENEFICIARY BPB WHERE BPB.CONSUMER_NUMBER = '0400017352782' AND BPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY') AND BPB.IS_ACTIVE = 1);UPDATE DC_BILL_PAYMENT_BENEFICIARY DPB SET DPB.IS_SI_SCHEDULED = 0,DPB.IS_ACTIVE = 0 WHERE DPB.CONSUMER_NUMBER = '0400017352782' AND DPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY') AND DPB.IS_ACTIVE = 1;COMMIT;END;</t>
-  </si>
-  <si>
-    <t>db_val2</t>
-  </si>
-  <si>
-    <t>QAT_BPS</t>
-  </si>
-  <si>
-    <t>0400017352782</t>
-  </si>
-  <si>
-    <t>SELECT LB.BILL_AMOUNT,LB.COMPANY_CODE FROM LP_BILLS LB WHERE LB.CONSUMER_NO='0400017352782' ORDER BY LB.CREATED_ON DESC</t>
-  </si>
-  <si>
-    <t>pakistan2</t>
-  </si>
-  <si>
-    <t>tran_type_query</t>
-  </si>
-  <si>
-    <t>SELECT AC.DESCRIPTION FROM DC_TRANSACTION_ACTIVITY_CONFIG AC WHERE AC.TRANSACTION_TYPE_ID =(SELECT DT.TRANSACTION_TYPE_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+    <t>Pay_Transaction_PayBillAmount_RadioBtn</t>
+  </si>
+  <si>
+    <t>PESCO</t>
+  </si>
+  <si>
+    <t>PESCO001</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided 01266110064500</t>
+  </si>
+  <si>
+    <t>01266110064500</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided 01266110064502</t>
+  </si>
+  <si>
+    <t>01266110064502</t>
+  </si>
+  <si>
+    <t>bene_name</t>
+  </si>
+  <si>
+    <t>bene_query</t>
+  </si>
+  <si>
+    <t>Select IS_ACTIVE from DC_BILL_PAYMENT_BENEFICIARY i where I.CONSUMER_NUMBER='{ConsumerNo}'</t>
+  </si>
+  <si>
+    <t>Abby</t>
+  </si>
+  <si>
+    <t>BEGIN UPDATE DC_SCHEDULED_TRAN_MASTER STM SET STM.STATE = 46 , STM.IS_DELETED = 1 WHERE STM.BILL_BENEFICIARY_ID = (SELECT BPB.BENEFICIARY_ID FROM DC_BILL_PAYMENT_BENEFICIARY BPB WHERE BPB.CONSUMER_NUMBER = '{ConsumerNo}' AND BPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY') AND BPB.IS_ACTIVE = 1);UPDATE DC_BILL_PAYMENT_BENEFICIARY DPB SET DPB.IS_SI_SCHEDULED = 0,DPB.IS_ACTIVE = 0 WHERE DPB.CONSUMER_NUMBER = '{ConsumerNo}' AND DPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'tango') AND DPB.IS_ACTIVE = 1;COMMIT;END;</t>
+  </si>
+  <si>
+    <t>expiry_date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +170,12 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -159,10 +198,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,112 +506,213 @@
     <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" customWidth="1"/>
+    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="94.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
-        <v>8</v>
-      </c>
       <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I2">
         <v>12345</v>
       </c>
       <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2">
+        <v>6391</v>
+      </c>
+      <c r="S2">
+        <v>202207</v>
+      </c>
+      <c r="T2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L2" t="s">
+      <c r="F3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3">
+        <v>12345</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
         <v>9</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O3" t="s">
         <v>11</v>
       </c>
-      <c r="N2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="P3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" t="s">
-        <v>27</v>
+      <c r="T3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
   <si>
     <t>Case</t>
   </si>
@@ -117,47 +117,65 @@
     <t>Pay_Transaction_PayBillAmount_RadioBtn</t>
   </si>
   <si>
-    <t>PESCO</t>
-  </si>
-  <si>
-    <t>PESCO001</t>
-  </si>
-  <si>
-    <t>When valid bill details are provided 01266110064500</t>
-  </si>
-  <si>
-    <t>01266110064500</t>
-  </si>
-  <si>
-    <t>When valid bill details are provided 01266110064502</t>
-  </si>
-  <si>
-    <t>01266110064502</t>
-  </si>
-  <si>
     <t>bene_name</t>
   </si>
   <si>
     <t>bene_query</t>
   </si>
   <si>
+    <t>expiry_date</t>
+  </si>
+  <si>
+    <t>MEPCO</t>
+  </si>
+  <si>
+    <t>MEPCO001</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided 05151110478500</t>
+  </si>
+  <si>
+    <t>BEGIN UPDATE DC_SCHEDULED_TRAN_MASTER STM SET STM.STATE = 46 , STM.IS_DELETED = 1 WHERE STM.BILL_BENEFICIARY_ID = (SELECT BPB.BENEFICIARY_ID FROM DC_BILL_PAYMENT_BENEFICIARY BPB WHERE BPB.CONSUMER_NUMBER = '{ConsumerNo}' AND BPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY') AND BPB.IS_ACTIVE = 1);UPDATE DC_BILL_PAYMENT_BENEFICIARY DPB SET DPB.IS_SI_SCHEDULED = 0,DPB.IS_ACTIVE = 0 WHERE DPB.CONSUMER_NUMBER = '{ConsumerNo}' AND DPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'A7575254900') AND DPB.IS_ACTIVE = 1;COMMIT;END;</t>
+  </si>
+  <si>
+    <t>05151110478500</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided 05151110478600</t>
+  </si>
+  <si>
+    <t>05151110478600</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided 05151110478601</t>
+  </si>
+  <si>
+    <t>05151110478601</t>
+  </si>
+  <si>
+    <t>instrument_type</t>
+  </si>
+  <si>
+    <t>Select Instrument_type from BPS_COMPANY_CHANNEL i where I.COMPANY_CODE='SNGPL001' and i.CHANNEL_CODE='MB'</t>
+  </si>
+  <si>
     <t>Select IS_ACTIVE from DC_BILL_PAYMENT_BENEFICIARY i where I.CONSUMER_NUMBER='{ConsumerNo}'</t>
   </si>
   <si>
-    <t>Abby</t>
-  </si>
-  <si>
-    <t>BEGIN UPDATE DC_SCHEDULED_TRAN_MASTER STM SET STM.STATE = 46 , STM.IS_DELETED = 1 WHERE STM.BILL_BENEFICIARY_ID = (SELECT BPB.BENEFICIARY_ID FROM DC_BILL_PAYMENT_BENEFICIARY BPB WHERE BPB.CONSUMER_NUMBER = '{ConsumerNo}' AND BPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY') AND BPB.IS_ACTIVE = 1);UPDATE DC_BILL_PAYMENT_BENEFICIARY DPB SET DPB.IS_SI_SCHEDULED = 0,DPB.IS_ACTIVE = 0 WHERE DPB.CONSUMER_NUMBER = '{ConsumerNo}' AND DPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'tango') AND DPB.IS_ACTIVE = 1;COMMIT;END;</t>
-  </si>
-  <si>
-    <t>expiry_date</t>
+    <t>Pay_Transaction_MaxBillAmount_RadioBtn</t>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>Ghar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,12 +188,6 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,13 +210,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,36 +498,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="44.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="44.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="44.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="127.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="185.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="94.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="111.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -570,7 +575,7 @@
         <v>27</v>
       </c>
       <c r="S1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -579,36 +584,39 @@
         <v>29</v>
       </c>
       <c r="V1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="W1" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="X1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I2">
         <v>12345</v>
@@ -637,46 +645,43 @@
       <c r="Q2" t="s">
         <v>21</v>
       </c>
-      <c r="R2">
-        <v>6391</v>
-      </c>
-      <c r="S2">
-        <v>202207</v>
+      <c r="R2" s="4">
+        <v>25417000018103</v>
       </c>
       <c r="T2" t="s">
         <v>31</v>
       </c>
-      <c r="V2" t="s">
-        <v>41</v>
-      </c>
       <c r="W2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I3">
         <v>12345</v>
@@ -705,14 +710,91 @@
       <c r="Q3" t="s">
         <v>21</v>
       </c>
+      <c r="R3" s="4">
+        <v>25417000018103</v>
+      </c>
       <c r="T3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3">
+        <v>1000</v>
+      </c>
+      <c r="V3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4">
+        <v>12345</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="4">
+        <v>25417523618103</v>
+      </c>
+      <c r="T4" t="s">
         <v>31</v>
       </c>
-      <c r="V3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W3" t="s">
-        <v>40</v>
+      <c r="V4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
   <si>
     <t>Case</t>
   </si>
   <si>
-    <t>When valid bill details are provided</t>
-  </si>
-  <si>
     <t>status_query</t>
   </si>
   <si>
@@ -69,55 +66,109 @@
     <t>Company_Value</t>
   </si>
   <si>
+    <t>company_code_value</t>
+  </si>
+  <si>
+    <t>tran_pass_value</t>
+  </si>
+  <si>
+    <t>DIGITAL_CHANNEL_SEC</t>
+  </si>
+  <si>
+    <t>status_query2</t>
+  </si>
+  <si>
+    <t>Bill_Amount_query</t>
+  </si>
+  <si>
+    <t>db_val2</t>
+  </si>
+  <si>
+    <t>QAT_BPS</t>
+  </si>
+  <si>
+    <t>pakistan2</t>
+  </si>
+  <si>
+    <t>tran_type_query</t>
+  </si>
+  <si>
+    <t>SELECT AC.DESCRIPTION FROM DC_TRANSACTION_ACTIVITY_CONFIG AC WHERE AC.TRANSACTION_TYPE_ID =(SELECT DT.TRANSACTION_TYPE_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>UPDATE LP_BILLS L SET L.BILL_STATUS_ID=1 , L.DUE_DATE=TRUNC(SYSDATE) WHERE L.CONSUMER_NO='{ConsumerNo}'</t>
+  </si>
+  <si>
+    <t>SELECT LB.BILL_AMOUNT,LB.COMPANY_CODE FROM LP_BILLS LB WHERE LB.CONSUMER_NO='{ConsumerNo}' ORDER BY LB.CREATED_ON DESC</t>
+  </si>
+  <si>
+    <t>account_no</t>
+  </si>
+  <si>
+    <t>schedule_type</t>
+  </si>
+  <si>
+    <t>maximum_amount</t>
+  </si>
+  <si>
     <t>Electricity Bill Payment</t>
   </si>
   <si>
-    <t>K-ELECTRIC</t>
-  </si>
-  <si>
-    <t>company_code_value</t>
-  </si>
-  <si>
-    <t>tran_pass_value</t>
-  </si>
-  <si>
-    <t>KESC0001</t>
-  </si>
-  <si>
-    <t>DIGITAL_CHANNEL_SEC</t>
-  </si>
-  <si>
-    <t>status_query2</t>
-  </si>
-  <si>
-    <t>Bill_Amount_query</t>
-  </si>
-  <si>
-    <t>UPDATE LP_BILLS L SET L.BILL_STATUS_ID=1 , L.DUE_DATE=TRUNC(SYSDATE) WHERE L.CONSUMER_NO='0400017352782'</t>
-  </si>
-  <si>
-    <t>BEGIN UPDATE DC_SCHEDULED_TRAN_MASTER STM SET STM.STATE = 46 , STM.IS_DELETED = 1 WHERE STM.BILL_BENEFICIARY_ID = (SELECT BPB.BENEFICIARY_ID FROM DC_BILL_PAYMENT_BENEFICIARY BPB WHERE BPB.CONSUMER_NUMBER = '0400017352782' AND BPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY') AND BPB.IS_ACTIVE = 1);UPDATE DC_BILL_PAYMENT_BENEFICIARY DPB SET DPB.IS_SI_SCHEDULED = 0,DPB.IS_ACTIVE = 0 WHERE DPB.CONSUMER_NUMBER = '0400017352782' AND DPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY') AND DPB.IS_ACTIVE = 1;COMMIT;END;</t>
-  </si>
-  <si>
-    <t>db_val2</t>
-  </si>
-  <si>
-    <t>QAT_BPS</t>
-  </si>
-  <si>
-    <t>0400017352782</t>
-  </si>
-  <si>
-    <t>SELECT LB.BILL_AMOUNT,LB.COMPANY_CODE FROM LP_BILLS LB WHERE LB.CONSUMER_NO='0400017352782' ORDER BY LB.CREATED_ON DESC</t>
-  </si>
-  <si>
-    <t>pakistan2</t>
-  </si>
-  <si>
-    <t>tran_type_query</t>
-  </si>
-  <si>
-    <t>SELECT AC.DESCRIPTION FROM DC_TRANSACTION_ACTIVITY_CONFIG AC WHERE AC.TRANSACTION_TYPE_ID =(SELECT DT.TRANSACTION_TYPE_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+    <t>Pay_Transaction_PayBillAmount_RadioBtn</t>
+  </si>
+  <si>
+    <t>bene_name</t>
+  </si>
+  <si>
+    <t>bene_query</t>
+  </si>
+  <si>
+    <t>expiry_date</t>
+  </si>
+  <si>
+    <t>MEPCO</t>
+  </si>
+  <si>
+    <t>MEPCO001</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided 05151110478500</t>
+  </si>
+  <si>
+    <t>BEGIN UPDATE DC_SCHEDULED_TRAN_MASTER STM SET STM.STATE = 46 , STM.IS_DELETED = 1 WHERE STM.BILL_BENEFICIARY_ID = (SELECT BPB.BENEFICIARY_ID FROM DC_BILL_PAYMENT_BENEFICIARY BPB WHERE BPB.CONSUMER_NUMBER = '{ConsumerNo}' AND BPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY') AND BPB.IS_ACTIVE = 1);UPDATE DC_BILL_PAYMENT_BENEFICIARY DPB SET DPB.IS_SI_SCHEDULED = 0,DPB.IS_ACTIVE = 0 WHERE DPB.CONSUMER_NUMBER = '{ConsumerNo}' AND DPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'A7575254900') AND DPB.IS_ACTIVE = 1;COMMIT;END;</t>
+  </si>
+  <si>
+    <t>05151110478500</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided 05151110478600</t>
+  </si>
+  <si>
+    <t>05151110478600</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided 05151110478601</t>
+  </si>
+  <si>
+    <t>05151110478601</t>
+  </si>
+  <si>
+    <t>instrument_type</t>
+  </si>
+  <si>
+    <t>Select Instrument_type from BPS_COMPANY_CHANNEL i where I.COMPANY_CODE='SNGPL001' and i.CHANNEL_CODE='MB'</t>
+  </si>
+  <si>
+    <t>Select IS_ACTIVE from DC_BILL_PAYMENT_BENEFICIARY i where I.CONSUMER_NUMBER='{ConsumerNo}'</t>
+  </si>
+  <si>
+    <t>Pay_Transaction_MaxBillAmount_RadioBtn</t>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>Ghar</t>
   </si>
 </sst>
 </file>
@@ -159,10 +210,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,133 +498,303 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="44.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="44.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="44.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="127.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="185.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="111.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
-        <v>8</v>
-      </c>
       <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I2">
         <v>12345</v>
       </c>
       <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="4">
+        <v>25417000018103</v>
+      </c>
+      <c r="T2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3">
+        <v>12345</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
         <v>9</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O3" t="s">
         <v>11</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="4">
+        <v>25417000018103</v>
+      </c>
+      <c r="T3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3">
+        <v>1000</v>
+      </c>
+      <c r="V3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4">
+        <v>12345</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" t="s">
         <v>10</v>
       </c>
-      <c r="O2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="N4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" t="s">
-        <v>27</v>
+      <c r="R4" s="4">
+        <v>25417523618103</v>
+      </c>
+      <c r="T4" t="s">
+        <v>31</v>
+      </c>
+      <c r="V4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
   <si>
     <t>Case</t>
   </si>
@@ -156,19 +156,22 @@
     <t>instrument_type</t>
   </si>
   <si>
-    <t>Select Instrument_type from BPS_COMPANY_CHANNEL i where I.COMPANY_CODE='SNGPL001' and i.CHANNEL_CODE='MB'</t>
-  </si>
-  <si>
-    <t>Select IS_ACTIVE from DC_BILL_PAYMENT_BENEFICIARY i where I.CONSUMER_NUMBER='{ConsumerNo}'</t>
-  </si>
-  <si>
     <t>Pay_Transaction_MaxBillAmount_RadioBtn</t>
   </si>
   <si>
-    <t>House</t>
-  </si>
-  <si>
-    <t>Ghar</t>
+    <t>account_type</t>
+  </si>
+  <si>
+    <t>SELECT CC.IS_RECURRING_PAYMENT FROM BPS_COMPANY_CHANNEL CC WHERE CC.COMPANY_CODE = '{Company_Code}' AND CC.CHANNEL_CODE = 'MB'</t>
+  </si>
+  <si>
+    <t>RETAIL</t>
+  </si>
+  <si>
+    <t>Select Instrument_type from BPS_COMPANY_CHANNEL i where i.COMPANY_CODE='{Company_Code}' and i.CHANNEL_CODE='MB'</t>
+  </si>
+  <si>
+    <t>Abby</t>
   </si>
 </sst>
 </file>
@@ -498,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,15 +514,16 @@
     <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="185.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="111.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="139.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="118.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -575,25 +579,28 @@
         <v>27</v>
       </c>
       <c r="S1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" t="s">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>28</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>29</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>32</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>33</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -619,7 +626,7 @@
         <v>36</v>
       </c>
       <c r="I2">
-        <v>12345</v>
+        <v>12345678</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
@@ -648,17 +655,23 @@
       <c r="R2" s="4">
         <v>25417000018103</v>
       </c>
-      <c r="T2" t="s">
+      <c r="S2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" t="s">
         <v>31</v>
       </c>
       <c r="W2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="X2" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -684,7 +697,7 @@
         <v>36</v>
       </c>
       <c r="I3">
-        <v>12345</v>
+        <v>12345678</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
@@ -713,23 +726,26 @@
       <c r="R3" s="4">
         <v>25417000018103</v>
       </c>
-      <c r="T3" t="s">
+      <c r="S3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="U3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V3">
+        <v>1000</v>
+      </c>
+      <c r="W3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3" t="s">
         <v>47</v>
       </c>
-      <c r="U3">
-        <v>1000</v>
-      </c>
-      <c r="V3" t="s">
-        <v>48</v>
-      </c>
-      <c r="W3" t="s">
-        <v>46</v>
-      </c>
-      <c r="X3" t="s">
-        <v>45</v>
+      <c r="Y3" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -755,7 +771,7 @@
         <v>36</v>
       </c>
       <c r="I4">
-        <v>12345</v>
+        <v>12345678</v>
       </c>
       <c r="J4" t="s">
         <v>22</v>
@@ -784,17 +800,20 @@
       <c r="R4" s="4">
         <v>25417523618103</v>
       </c>
-      <c r="T4" t="s">
+      <c r="S4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="U4" t="s">
         <v>31</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
+        <v>50</v>
+      </c>
+      <c r="X4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y4" t="s">
         <v>49</v>
-      </c>
-      <c r="W4" t="s">
-        <v>46</v>
-      </c>
-      <c r="X4" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="60">
   <si>
     <t>Case</t>
   </si>
@@ -135,9 +135,6 @@
     <t>When valid bill details are provided 05151110478500</t>
   </si>
   <si>
-    <t>BEGIN UPDATE DC_SCHEDULED_TRAN_MASTER STM SET STM.STATE = 46 , STM.IS_DELETED = 1 WHERE STM.BILL_BENEFICIARY_ID = (SELECT BPB.BENEFICIARY_ID FROM DC_BILL_PAYMENT_BENEFICIARY BPB WHERE BPB.CONSUMER_NUMBER = '{ConsumerNo}' AND BPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY') AND BPB.IS_ACTIVE = 1);UPDATE DC_BILL_PAYMENT_BENEFICIARY DPB SET DPB.IS_SI_SCHEDULED = 0,DPB.IS_ACTIVE = 0 WHERE DPB.CONSUMER_NUMBER = '{ConsumerNo}' AND DPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'A7575254900') AND DPB.IS_ACTIVE = 1;COMMIT;END;</t>
-  </si>
-  <si>
     <t>05151110478500</t>
   </si>
   <si>
@@ -172,6 +169,36 @@
   </si>
   <si>
     <t>Abby</t>
+  </si>
+  <si>
+    <t>schedule_config</t>
+  </si>
+  <si>
+    <t>Select PARAMTER_VALUE from DC_APPLICATION_PARAM_DETAIL i where I.APPLICATION_PARAMETER_ID='906'</t>
+  </si>
+  <si>
+    <t>schedule_verify</t>
+  </si>
+  <si>
+    <t>Select FIRST_EXECUTION_DATE, LAST_EXECUTION_DATE from DC_SCHEDULED_TRAN_MASTER i where I.CUSTOMER_INFO_ID='{customer_info_id}'</t>
+  </si>
+  <si>
+    <t>01266110067304</t>
+  </si>
+  <si>
+    <t>BEGIN UPDATE DC_SCHEDULED_TRAN_MASTER STM SET STM.STATE = 46 , STM.IS_DELETED = 1 WHERE STM.BILL_BENEFICIARY_ID = (SELECT BPB.BENEFICIARY_ID FROM DC_BILL_PAYMENT_BENEFICIARY BPB WHERE BPB.CONSUMER_NUMBER = '{ConsumerNo}' AND BPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY') AND BPB.IS_ACTIVE = 1);UPDATE DC_BILL_PAYMENT_BENEFICIARY DPB SET DPB.IS_SI_SCHEDULED = 0,DPB.IS_ACTIVE = 0 WHERE DPB.CONSUMER_NUMBER = '{ConsumerNo}' AND DPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY') AND DPB.IS_ACTIVE = 1;COMMIT;END;</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided 01266110067304</t>
+  </si>
+  <si>
+    <t>02197900643103</t>
+  </si>
+  <si>
+    <t>PESCO</t>
+  </si>
+  <si>
+    <t>PESCO001</t>
   </si>
 </sst>
 </file>
@@ -501,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +540,7 @@
     <col min="7" max="7" width="127.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="185.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.140625" style="4" customWidth="1"/>
     <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
@@ -521,9 +548,11 @@
     <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="139.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="118.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="101.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="132.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -579,7 +608,7 @@
         <v>27</v>
       </c>
       <c r="S1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T1" t="s">
         <v>34</v>
@@ -597,10 +626,16 @@
         <v>33</v>
       </c>
       <c r="Y1" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -608,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
@@ -617,7 +652,7 @@
         <v>35</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>26</v>
@@ -652,34 +687,40 @@
       <c r="Q2" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="4">
-        <v>25417000018103</v>
+      <c r="R2" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
         <v>31</v>
       </c>
       <c r="W2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y2" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>30</v>
@@ -688,7 +729,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>26</v>
@@ -723,37 +764,43 @@
       <c r="Q3" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="4">
-        <v>25417000018103</v>
+      <c r="R3" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V3">
         <v>1000</v>
       </c>
       <c r="W3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y3" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>30</v>
@@ -762,7 +809,7 @@
         <v>35</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>26</v>
@@ -797,24 +844,110 @@
       <c r="Q4" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="4">
-        <v>25417523618103</v>
+      <c r="R4" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U4" t="s">
         <v>31</v>
       </c>
       <c r="W4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5">
+        <v>12345678</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="U5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W5" t="s">
         <v>49</v>
       </c>
+      <c r="X5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="R7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
@@ -186,19 +186,19 @@
     <t>01266110067304</t>
   </si>
   <si>
-    <t>BEGIN UPDATE DC_SCHEDULED_TRAN_MASTER STM SET STM.STATE = 46 , STM.IS_DELETED = 1 WHERE STM.BILL_BENEFICIARY_ID = (SELECT BPB.BENEFICIARY_ID FROM DC_BILL_PAYMENT_BENEFICIARY BPB WHERE BPB.CONSUMER_NUMBER = '{ConsumerNo}' AND BPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY') AND BPB.IS_ACTIVE = 1);UPDATE DC_BILL_PAYMENT_BENEFICIARY DPB SET DPB.IS_SI_SCHEDULED = 0,DPB.IS_ACTIVE = 0 WHERE DPB.CONSUMER_NUMBER = '{ConsumerNo}' AND DPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY') AND DPB.IS_ACTIVE = 1;COMMIT;END;</t>
-  </si>
-  <si>
     <t>When valid bill details are provided 01266110067304</t>
   </si>
   <si>
-    <t>02197900643103</t>
-  </si>
-  <si>
     <t>PESCO</t>
   </si>
   <si>
     <t>PESCO001</t>
+  </si>
+  <si>
+    <t>00580052365603 </t>
+  </si>
+  <si>
+    <t>BEGIN UPDATE DC_SCHEDULED_TRAN_MASTER STM SET STM.STATE = 46 , STM.IS_DELETED = 1 WHERE STM.BILL_BENEFICIARY_ID = (SELECT BPB.BENEFICIARY_ID FROM DC_BILL_PAYMENT_BENEFICIARY BPB WHERE BPB.CONSUMER_NUMBER = '{ConsumerNo}' AND BPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY') AND BPB.IS_ACTIVE = 1);UPDATE DC_BILL_PAYMENT_BENEFICIARY DPB SET DPB.IS_SI_SCHEDULED = 0,DPB.IS_ACTIVE = 0 WHERE DPB.CONSUMER_NUMBER = '{ConsumerNo}' AND DPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'YASIR113') AND DPB.IS_ACTIVE = 1;COMMIT;END;</t>
   </si>
 </sst>
 </file>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
@@ -688,7 +688,7 @@
         <v>21</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>47</v>
@@ -720,7 +720,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>30</v>
@@ -765,7 +765,7 @@
         <v>21</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S3" s="4" t="s">
         <v>47</v>
@@ -800,7 +800,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>30</v>
@@ -845,7 +845,7 @@
         <v>21</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S4" s="4" t="s">
         <v>47</v>
@@ -871,19 +871,19 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>54</v>
@@ -892,7 +892,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I5">
         <v>12345678</v>
@@ -922,7 +922,7 @@
         <v>21</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S5" s="4" t="s">
         <v>47</v>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
@@ -531,7 +531,7 @@
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
@@ -99,9 +99,6 @@
     <t>UPDATE LP_BILLS L SET L.BILL_STATUS_ID=1 , L.DUE_DATE=TRUNC(SYSDATE) WHERE L.CONSUMER_NO='{ConsumerNo}'</t>
   </si>
   <si>
-    <t>SELECT LB.BILL_AMOUNT,LB.COMPANY_CODE FROM LP_BILLS LB WHERE LB.CONSUMER_NO='{ConsumerNo}' ORDER BY LB.CREATED_ON DESC</t>
-  </si>
-  <si>
     <t>account_no</t>
   </si>
   <si>
@@ -132,12 +129,6 @@
     <t>MEPCO001</t>
   </si>
   <si>
-    <t>When valid bill details are provided 05151110478500</t>
-  </si>
-  <si>
-    <t>05151110478500</t>
-  </si>
-  <si>
     <t>When valid bill details are provided 05151110478600</t>
   </si>
   <si>
@@ -198,7 +189,16 @@
     <t>00580052365603 </t>
   </si>
   <si>
-    <t>BEGIN UPDATE DC_SCHEDULED_TRAN_MASTER STM SET STM.STATE = 46 , STM.IS_DELETED = 1 WHERE STM.BILL_BENEFICIARY_ID = (SELECT BPB.BENEFICIARY_ID FROM DC_BILL_PAYMENT_BENEFICIARY BPB WHERE BPB.CONSUMER_NUMBER = '{ConsumerNo}' AND BPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY') AND BPB.IS_ACTIVE = 1);UPDATE DC_BILL_PAYMENT_BENEFICIARY DPB SET DPB.IS_SI_SCHEDULED = 0,DPB.IS_ACTIVE = 0 WHERE DPB.CONSUMER_NUMBER = '{ConsumerNo}' AND DPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'YASIR113') AND DPB.IS_ACTIVE = 1;COMMIT;END;</t>
+    <t>SELECT LB.BILL_AMOUNT, LB.COMPANY_CODE, LB.DUE_DATE FROM LP_BILLS LB WHERE LB.CONSUMER_NO='{ConsumerNo}' ORDER BY LB.CREATED_ON DESC</t>
+  </si>
+  <si>
+    <t>0400005777052</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided 0400005777052</t>
+  </si>
+  <si>
+    <t>BEGIN UPDATE DC_SCHEDULED_TRAN_MASTER STM SET STM.STATE = 46 , STM.IS_DELETED = 1 WHERE STM.BILL_BENEFICIARY_ID = (SELECT BPB.BENEFICIARY_ID FROM DC_BILL_PAYMENT_BENEFICIARY BPB WHERE BPB.CONSUMER_NUMBER = '{ConsumerNo}' AND BPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}') AND BPB.IS_ACTIVE = 1);UPDATE DC_BILL_PAYMENT_BENEFICIARY DPB SET DPB.IS_SI_SCHEDULED = 0,DPB.IS_ACTIVE = 0 WHERE DPB.CONSUMER_NUMBER = '{ConsumerNo}' AND DPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}') AND DPB.IS_ACTIVE = 1;COMMIT;END;</t>
   </si>
 </sst>
 </file>
@@ -531,13 +531,13 @@
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="35.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="127.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="140.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="185.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
@@ -605,39 +605,39 @@
         <v>20</v>
       </c>
       <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>28</v>
       </c>
-      <c r="V1" t="s">
-        <v>29</v>
-      </c>
       <c r="W1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" t="s">
         <v>32</v>
       </c>
-      <c r="X1" t="s">
-        <v>33</v>
-      </c>
       <c r="Y1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Z1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AA1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -646,19 +646,19 @@
         <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="I2">
         <v>12345678</v>
@@ -688,33 +688,33 @@
         <v>21</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="U2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="X2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Y2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z2" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" t="s">
-        <v>51</v>
-      </c>
       <c r="AA2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -723,19 +723,19 @@
         <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="I3">
         <v>12345678</v>
@@ -765,36 +765,36 @@
         <v>21</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="U3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="V3">
         <v>1000</v>
       </c>
       <c r="W3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="X3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Y3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z3" t="s">
         <v>48</v>
       </c>
-      <c r="Z3" t="s">
-        <v>51</v>
-      </c>
       <c r="AA3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -803,19 +803,19 @@
         <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="I4">
         <v>12345678</v>
@@ -845,33 +845,33 @@
         <v>21</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="U4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="X4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Y4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" t="s">
         <v>48</v>
       </c>
-      <c r="Z4" t="s">
-        <v>51</v>
-      </c>
       <c r="AA4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -880,19 +880,19 @@
         <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="I5">
         <v>12345678</v>
@@ -922,28 +922,28 @@
         <v>21</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="U5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="X5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Y5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z5" t="s">
         <v>48</v>
       </c>
-      <c r="Z5" t="s">
-        <v>51</v>
-      </c>
       <c r="AA5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
@@ -171,9 +171,6 @@
     <t>schedule_verify</t>
   </si>
   <si>
-    <t>Select FIRST_EXECUTION_DATE, LAST_EXECUTION_DATE from DC_SCHEDULED_TRAN_MASTER i where I.CUSTOMER_INFO_ID='{customer_info_id}'</t>
-  </si>
-  <si>
     <t>01266110067304</t>
   </si>
   <si>
@@ -199,6 +196,9 @@
   </si>
   <si>
     <t>BEGIN UPDATE DC_SCHEDULED_TRAN_MASTER STM SET STM.STATE = 46 , STM.IS_DELETED = 1 WHERE STM.BILL_BENEFICIARY_ID = (SELECT BPB.BENEFICIARY_ID FROM DC_BILL_PAYMENT_BENEFICIARY BPB WHERE BPB.CONSUMER_NUMBER = '{ConsumerNo}' AND BPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}') AND BPB.IS_ACTIVE = 1);UPDATE DC_BILL_PAYMENT_BENEFICIARY DPB SET DPB.IS_SI_SCHEDULED = 0,DPB.IS_ACTIVE = 0 WHERE DPB.CONSUMER_NUMBER = '{ConsumerNo}' AND DPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}') AND DPB.IS_ACTIVE = 1;COMMIT;END;</t>
+  </si>
+  <si>
+    <t>SELECT TM.FIRST_EXECUTION_DATE,TM.LAST_EXECUTION_DATE FROM DC_SCHEDULED_TRAN_MASTER TM WHERE TM.BILL_BENEFICIARY_ID = (SELECT PB.BENEFICIARY_ID FROM DC_BILL_PAYMENT_BENEFICIARY PB WHERE PB.CONSUMER_NUMBER = '{ConsumerNo}' AND PB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}') AND PB.IS_ACTIVE = 1)</t>
   </si>
 </sst>
 </file>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +549,7 @@
     <col min="24" max="24" width="139.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="118.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="101.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="132.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="203.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
@@ -637,13 +637,13 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -652,10 +652,10 @@
         <v>34</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>35</v>
@@ -688,7 +688,7 @@
         <v>21</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>44</v>
@@ -709,7 +709,7 @@
         <v>48</v>
       </c>
       <c r="AA2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
@@ -720,7 +720,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
@@ -732,7 +732,7 @@
         <v>37</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>35</v>
@@ -765,7 +765,7 @@
         <v>21</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S3" s="4" t="s">
         <v>44</v>
@@ -789,7 +789,7 @@
         <v>48</v>
       </c>
       <c r="AA3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -800,7 +800,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
@@ -812,7 +812,7 @@
         <v>39</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>35</v>
@@ -845,7 +845,7 @@
         <v>21</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S4" s="4" t="s">
         <v>44</v>
@@ -866,33 +866,33 @@
         <v>48</v>
       </c>
       <c r="AA4" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="I5">
         <v>12345678</v>
@@ -922,7 +922,7 @@
         <v>21</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S5" s="4" t="s">
         <v>44</v>
@@ -943,7 +943,7 @@
         <v>48</v>
       </c>
       <c r="AA5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="82">
   <si>
     <t>Case</t>
   </si>
@@ -135,12 +135,6 @@
     <t>05151110478600</t>
   </si>
   <si>
-    <t>When valid bill details are provided 05151110478601</t>
-  </si>
-  <si>
-    <t>05151110478601</t>
-  </si>
-  <si>
     <t>instrument_type</t>
   </si>
   <si>
@@ -171,34 +165,106 @@
     <t>schedule_verify</t>
   </si>
   <si>
-    <t>01266110067304</t>
-  </si>
-  <si>
-    <t>When valid bill details are provided 01266110067304</t>
-  </si>
-  <si>
-    <t>PESCO</t>
-  </si>
-  <si>
-    <t>PESCO001</t>
-  </si>
-  <si>
-    <t>00580052365603 </t>
-  </si>
-  <si>
-    <t>SELECT LB.BILL_AMOUNT, LB.COMPANY_CODE, LB.DUE_DATE FROM LP_BILLS LB WHERE LB.CONSUMER_NO='{ConsumerNo}' ORDER BY LB.CREATED_ON DESC</t>
-  </si>
-  <si>
-    <t>0400005777052</t>
-  </si>
-  <si>
-    <t>When valid bill details are provided 0400005777052</t>
-  </si>
-  <si>
     <t>BEGIN UPDATE DC_SCHEDULED_TRAN_MASTER STM SET STM.STATE = 46 , STM.IS_DELETED = 1 WHERE STM.BILL_BENEFICIARY_ID = (SELECT BPB.BENEFICIARY_ID FROM DC_BILL_PAYMENT_BENEFICIARY BPB WHERE BPB.CONSUMER_NUMBER = '{ConsumerNo}' AND BPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}') AND BPB.IS_ACTIVE = 1);UPDATE DC_BILL_PAYMENT_BENEFICIARY DPB SET DPB.IS_SI_SCHEDULED = 0,DPB.IS_ACTIVE = 0 WHERE DPB.CONSUMER_NUMBER = '{ConsumerNo}' AND DPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}') AND DPB.IS_ACTIVE = 1;COMMIT;END;</t>
   </si>
   <si>
     <t>SELECT TM.FIRST_EXECUTION_DATE,TM.LAST_EXECUTION_DATE FROM DC_SCHEDULED_TRAN_MASTER TM WHERE TM.BILL_BENEFICIARY_ID = (SELECT PB.BENEFICIARY_ID FROM DC_BILL_PAYMENT_BENEFICIARY PB WHERE PB.CONSUMER_NUMBER = '{ConsumerNo}' AND PB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}') AND PB.IS_ACTIVE = 1)</t>
+  </si>
+  <si>
+    <t>0001235534</t>
+  </si>
+  <si>
+    <t>06124110095500</t>
+  </si>
+  <si>
+    <t>5733160000</t>
+  </si>
+  <si>
+    <t>19481120735802</t>
+  </si>
+  <si>
+    <t>QESCO</t>
+  </si>
+  <si>
+    <t>GEPCO</t>
+  </si>
+  <si>
+    <t>SSGC</t>
+  </si>
+  <si>
+    <t>K-Electric New Connection</t>
+  </si>
+  <si>
+    <t>Gas Bill Payment</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided 0001235534</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided 06124110095500</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided 5733160000</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided 19481120735802</t>
+  </si>
+  <si>
+    <t>KESC0002</t>
+  </si>
+  <si>
+    <t>GEPCO001</t>
+  </si>
+  <si>
+    <t>SSGC0001</t>
+  </si>
+  <si>
+    <t>NQESCO01</t>
+  </si>
+  <si>
+    <t>04030023521301</t>
+  </si>
+  <si>
+    <t>04037900493703</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>office</t>
+  </si>
+  <si>
+    <t>SELECT LB.BILL_AMOUNT, LB.COMPANY_CODE, LB.DUE_DATE FROM LP_BILLS LB WHERE LB.CONSUMER_NO='{ConsumerNo}' ORDER BY LB.BILLING_MONTH DESC</t>
+  </si>
+  <si>
+    <t>consumer_label_query</t>
+  </si>
+  <si>
+    <t>Select K.CONSUMER_NO_LABEL from BPS_COMPANY_CHANNEL K where k.COMPANY_CODE = '{Company_Code}' and K.CHANNEL_CODE = 'MB'</t>
+  </si>
+  <si>
+    <t>SELECT L.IS_SI_ALLOWED FROM BPS_COMPANY_CHANNEL L WHERE L.COMPANY_CODE = '{Company_Code}' and L.CHANNEL_CODE = 'MB'</t>
+  </si>
+  <si>
+    <t>IS_SI_Allowed_query</t>
+  </si>
+  <si>
+    <t>SELECT K.IS_PAID_MARKING_REQUIRED FROM BPS_COMPANY_CHANNEL  K where k.COMPANY_CODE = '{Company_Code}' and K.CHANNEL_CODE = 'MB'</t>
+  </si>
+  <si>
+    <t>is_paid_query</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT Z.BILL_STATUS_ID FROM LP_BILLS Z where Z.CONSUMER_NO = '{ConsumerNo}' </t>
+  </si>
+  <si>
+    <t>bill_status_id_query</t>
+  </si>
+  <si>
+    <t>Select K.IS_PARTIAL_PAYMENT_ALLOWED from BPS_COMPANY_CHANNEL K where k.COMPANY_CODE =  '{Company_Code}'  and K.CHANNEL_CODE = 'MB'</t>
+  </si>
+  <si>
+    <t>is_partial_payment_query</t>
   </si>
 </sst>
 </file>
@@ -528,14 +594,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="140.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -550,9 +619,14 @@
     <col min="25" max="25" width="118.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="101.42578125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="203.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="129.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="123.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="137.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="78.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="139.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -608,7 +682,7 @@
         <v>26</v>
       </c>
       <c r="S1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T1" t="s">
         <v>33</v>
@@ -626,24 +700,39 @@
         <v>32</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Z1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" t="s">
         <v>47</v>
       </c>
-      <c r="AA1" t="s">
-        <v>49</v>
+      <c r="AB1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -652,10 +741,10 @@
         <v>34</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>35</v>
@@ -688,57 +777,72 @@
         <v>21</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U2" t="s">
         <v>30</v>
       </c>
       <c r="W2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z2" t="s">
         <v>46</v>
       </c>
-      <c r="X2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>48</v>
-      </c>
       <c r="AA2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>37</v>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I3">
-        <v>12345678</v>
+        <v>12345679</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
@@ -765,60 +869,69 @@
         <v>21</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="U3" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" t="s">
+        <v>69</v>
+      </c>
+      <c r="X3" t="s">
         <v>41</v>
       </c>
-      <c r="V3">
-        <v>1000</v>
-      </c>
-      <c r="W3" t="s">
+      <c r="Y3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z3" t="s">
         <v>46</v>
       </c>
-      <c r="X3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>48</v>
-      </c>
       <c r="AA3" t="s">
-        <v>59</v>
+        <v>49</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>39</v>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="I4">
-        <v>12345678</v>
+        <v>12345680</v>
       </c>
       <c r="J4" t="s">
         <v>22</v>
@@ -845,57 +958,72 @@
         <v>21</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U4" t="s">
         <v>30</v>
       </c>
       <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z4" t="s">
         <v>46</v>
       </c>
-      <c r="X4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>48</v>
-      </c>
       <c r="AA4" t="s">
-        <v>59</v>
+        <v>49</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="I5">
-        <v>12345678</v>
+        <v>12345681</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
@@ -922,32 +1050,133 @@
         <v>21</v>
       </c>
       <c r="R5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V5">
+        <v>500000</v>
+      </c>
+      <c r="X5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
         <v>54</v>
       </c>
-      <c r="S5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="U5" t="s">
+      <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6">
+        <v>12345682</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U6" t="s">
         <v>30</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" t="s">
         <v>46</v>
       </c>
-      <c r="X5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="R7" s="1"/>
+      <c r="AA6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="83">
   <si>
     <t>Case</t>
   </si>
@@ -222,12 +222,6 @@
     <t>NQESCO01</t>
   </si>
   <si>
-    <t>04030023521301</t>
-  </si>
-  <si>
-    <t>04037900493703</t>
-  </si>
-  <si>
     <t>Home</t>
   </si>
   <si>
@@ -265,6 +259,15 @@
   </si>
   <si>
     <t>is_partial_payment_query</t>
+  </si>
+  <si>
+    <t>28156121235512</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided 28156121235512</t>
+  </si>
+  <si>
+    <t>00476000949001 | SHAISTA | HBL ANNEXE.</t>
   </si>
 </sst>
 </file>
@@ -594,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF6"/>
+  <dimension ref="A1:AF7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AF9" sqref="AF9"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +612,7 @@
     <col min="7" max="7" width="140.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="185.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="38.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.140625" style="4" customWidth="1"/>
     <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
@@ -709,19 +712,19 @@
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AC1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD1" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>77</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>79</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -744,7 +747,7 @@
         <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>35</v>
@@ -777,7 +780,7 @@
         <v>21</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>42</v>
@@ -801,19 +804,19 @@
         <v>49</v>
       </c>
       <c r="AB2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AC2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD2" t="s">
         <v>74</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>76</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>78</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
@@ -836,7 +839,7 @@
         <v>50</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>63</v>
@@ -869,13 +872,13 @@
         <v>21</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="S3" s="4" t="s">
         <v>42</v>
       </c>
       <c r="W3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="X3" t="s">
         <v>41</v>
@@ -890,19 +893,19 @@
         <v>49</v>
       </c>
       <c r="AB3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AC3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD3" t="s">
         <v>74</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>76</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>78</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
@@ -925,7 +928,7 @@
         <v>51</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>64</v>
@@ -958,7 +961,7 @@
         <v>21</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="S4" s="4" t="s">
         <v>42</v>
@@ -967,7 +970,7 @@
         <v>30</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="X4" t="s">
         <v>41</v>
@@ -982,19 +985,19 @@
         <v>49</v>
       </c>
       <c r="AB4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AC4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD4" t="s">
         <v>74</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>76</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>78</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -1017,7 +1020,7 @@
         <v>52</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>65</v>
@@ -1050,7 +1053,7 @@
         <v>21</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="S5" s="4" t="s">
         <v>42</v>
@@ -1074,19 +1077,19 @@
         <v>49</v>
       </c>
       <c r="AB5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AC5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD5" t="s">
         <v>74</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>76</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>78</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
@@ -1109,7 +1112,7 @@
         <v>53</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>66</v>
@@ -1142,7 +1145,7 @@
         <v>21</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="S6" s="4" t="s">
         <v>42</v>
@@ -1163,19 +1166,108 @@
         <v>49</v>
       </c>
       <c r="AB6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AC6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD6" t="s">
         <v>74</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>76</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>78</v>
       </c>
-      <c r="AF6" t="s">
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>80</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7">
+        <v>12345682</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U7" t="s">
+        <v>30</v>
+      </c>
+      <c r="X7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
@@ -599,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
   <si>
     <t>Case</t>
   </si>
@@ -123,18 +123,6 @@
     <t>expiry_date</t>
   </si>
   <si>
-    <t>MEPCO</t>
-  </si>
-  <si>
-    <t>MEPCO001</t>
-  </si>
-  <si>
-    <t>When valid bill details are provided 05151110478600</t>
-  </si>
-  <si>
-    <t>05151110478600</t>
-  </si>
-  <si>
     <t>instrument_type</t>
   </si>
   <si>
@@ -153,9 +141,6 @@
     <t>Select Instrument_type from BPS_COMPANY_CHANNEL i where i.COMPANY_CODE='{Company_Code}' and i.CHANNEL_CODE='MB'</t>
   </si>
   <si>
-    <t>Abby</t>
-  </si>
-  <si>
     <t>schedule_config</t>
   </si>
   <si>
@@ -171,122 +156,92 @@
     <t>SELECT TM.FIRST_EXECUTION_DATE,TM.LAST_EXECUTION_DATE FROM DC_SCHEDULED_TRAN_MASTER TM WHERE TM.BILL_BENEFICIARY_ID = (SELECT PB.BENEFICIARY_ID FROM DC_BILL_PAYMENT_BENEFICIARY PB WHERE PB.CONSUMER_NUMBER = '{ConsumerNo}' AND PB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}') AND PB.IS_ACTIVE = 1)</t>
   </si>
   <si>
-    <t>0001235534</t>
-  </si>
-  <si>
     <t>06124110095500</t>
   </si>
   <si>
     <t>5733160000</t>
   </si>
   <si>
-    <t>19481120735802</t>
-  </si>
-  <si>
-    <t>QESCO</t>
-  </si>
-  <si>
     <t>GEPCO</t>
   </si>
   <si>
     <t>SSGC</t>
   </si>
   <si>
-    <t>K-Electric New Connection</t>
-  </si>
-  <si>
     <t>Gas Bill Payment</t>
   </si>
   <si>
-    <t>When valid bill details are provided 0001235534</t>
-  </si>
-  <si>
     <t>When valid bill details are provided 06124110095500</t>
   </si>
   <si>
     <t>When valid bill details are provided 5733160000</t>
   </si>
   <si>
-    <t>When valid bill details are provided 19481120735802</t>
-  </si>
-  <si>
-    <t>KESC0002</t>
-  </si>
-  <si>
     <t>GEPCO001</t>
   </si>
   <si>
     <t>SSGC0001</t>
   </si>
   <si>
-    <t>NQESCO01</t>
-  </si>
-  <si>
-    <t>Home</t>
+    <t>SELECT LB.BILL_AMOUNT, LB.COMPANY_CODE, LB.DUE_DATE FROM LP_BILLS LB WHERE LB.CONSUMER_NO='{ConsumerNo}' ORDER BY LB.BILLING_MONTH DESC</t>
+  </si>
+  <si>
+    <t>consumer_label_query</t>
+  </si>
+  <si>
+    <t>Select K.CONSUMER_NO_LABEL from BPS_COMPANY_CHANNEL K where k.COMPANY_CODE = '{Company_Code}' and K.CHANNEL_CODE = 'MB'</t>
+  </si>
+  <si>
+    <t>SELECT L.IS_SI_ALLOWED FROM BPS_COMPANY_CHANNEL L WHERE L.COMPANY_CODE = '{Company_Code}' and L.CHANNEL_CODE = 'MB'</t>
+  </si>
+  <si>
+    <t>IS_SI_Allowed_query</t>
+  </si>
+  <si>
+    <t>SELECT K.IS_PAID_MARKING_REQUIRED FROM BPS_COMPANY_CHANNEL  K where k.COMPANY_CODE = '{Company_Code}' and K.CHANNEL_CODE = 'MB'</t>
+  </si>
+  <si>
+    <t>is_paid_query</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT Z.BILL_STATUS_ID FROM LP_BILLS Z where Z.CONSUMER_NO = '{ConsumerNo}' </t>
+  </si>
+  <si>
+    <t>bill_status_id_query</t>
+  </si>
+  <si>
+    <t>Select K.IS_PARTIAL_PAYMENT_ALLOWED from BPS_COMPANY_CHANNEL K where k.COMPANY_CODE =  '{Company_Code}'  and K.CHANNEL_CODE = 'MB'</t>
+  </si>
+  <si>
+    <t>is_partial_payment_query</t>
+  </si>
+  <si>
+    <t>00476000949001 | SHAISTA | HBL ANNEXE.</t>
   </si>
   <si>
     <t>office</t>
   </si>
   <si>
-    <t>SELECT LB.BILL_AMOUNT, LB.COMPANY_CODE, LB.DUE_DATE FROM LP_BILLS LB WHERE LB.CONSUMER_NO='{ConsumerNo}' ORDER BY LB.BILLING_MONTH DESC</t>
-  </si>
-  <si>
-    <t>consumer_label_query</t>
-  </si>
-  <si>
-    <t>Select K.CONSUMER_NO_LABEL from BPS_COMPANY_CHANNEL K where k.COMPANY_CODE = '{Company_Code}' and K.CHANNEL_CODE = 'MB'</t>
-  </si>
-  <si>
-    <t>SELECT L.IS_SI_ALLOWED FROM BPS_COMPANY_CHANNEL L WHERE L.COMPANY_CODE = '{Company_Code}' and L.CHANNEL_CODE = 'MB'</t>
-  </si>
-  <si>
-    <t>IS_SI_Allowed_query</t>
-  </si>
-  <si>
-    <t>SELECT K.IS_PAID_MARKING_REQUIRED FROM BPS_COMPANY_CHANNEL  K where k.COMPANY_CODE = '{Company_Code}' and K.CHANNEL_CODE = 'MB'</t>
-  </si>
-  <si>
-    <t>is_paid_query</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT Z.BILL_STATUS_ID FROM LP_BILLS Z where Z.CONSUMER_NO = '{ConsumerNo}' </t>
-  </si>
-  <si>
-    <t>bill_status_id_query</t>
-  </si>
-  <si>
-    <t>Select K.IS_PARTIAL_PAYMENT_ALLOWED from BPS_COMPANY_CHANNEL K where k.COMPANY_CODE =  '{Company_Code}'  and K.CHANNEL_CODE = 'MB'</t>
-  </si>
-  <si>
-    <t>is_partial_payment_query</t>
-  </si>
-  <si>
-    <t>28156121235512</t>
-  </si>
-  <si>
-    <t>When valid bill details are provided 28156121235512</t>
-  </si>
-  <si>
-    <t>00476000949001 | SHAISTA | HBL ANNEXE.</t>
+    <t>06124110093801</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided 06124110093801</t>
+  </si>
+  <si>
+    <t>pakistan3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -309,13 +264,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -597,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF7"/>
+  <dimension ref="A1:AF4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,8 +563,8 @@
     <col min="7" max="7" width="140.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="185.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="38.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.140625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="38.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" style="2" customWidth="1"/>
     <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
@@ -685,7 +636,7 @@
         <v>26</v>
       </c>
       <c r="S1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
         <v>33</v>
@@ -703,57 +654,57 @@
         <v>32</v>
       </c>
       <c r="Y1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Z1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AA1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AB1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AC1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="AD1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AE1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="AF1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>37</v>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="I2">
-        <v>12345678</v>
+        <v>12345680</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
@@ -780,72 +731,72 @@
         <v>21</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>42</v>
+        <v>65</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="U2" t="s">
         <v>30</v>
       </c>
       <c r="W2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" t="s">
         <v>44</v>
       </c>
-      <c r="X2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>49</v>
-      </c>
       <c r="AB2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="AC2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="AD2" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="AE2" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="AF2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
         <v>48</v>
       </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>57</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I3">
-        <v>12345679</v>
+        <v>12345681</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
@@ -872,72 +823,75 @@
         <v>21</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="W3" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V3">
+        <v>101</v>
       </c>
       <c r="X3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z3" t="s">
         <v>41</v>
       </c>
-      <c r="Y3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>46</v>
-      </c>
       <c r="AA3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AB3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="AC3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="AD3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="AE3" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="AF3" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4">
+        <v>12345682</v>
+      </c>
+      <c r="J4" t="s">
         <v>69</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4">
-        <v>12345680</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>24</v>
@@ -961,313 +915,43 @@
         <v>21</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>42</v>
+        <v>65</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="U4" t="s">
         <v>30</v>
       </c>
       <c r="W4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="X4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z4" t="s">
         <v>41</v>
       </c>
-      <c r="Y4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>46</v>
-      </c>
       <c r="AA4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AB4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="AC4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="AD4" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="AE4" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="AF4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5">
-        <v>12345681</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" t="s">
-        <v>11</v>
-      </c>
-      <c r="P5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>21</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="U5" t="s">
-        <v>39</v>
-      </c>
-      <c r="V5">
-        <v>500000</v>
-      </c>
-      <c r="X5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6">
-        <v>12345682</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>21</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="U6" t="s">
-        <v>30</v>
-      </c>
-      <c r="X6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7">
-        <v>12345682</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="U7" t="s">
-        <v>30</v>
-      </c>
-      <c r="X7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment.xlsx
@@ -216,9 +216,6 @@
     <t>is_partial_payment_query</t>
   </si>
   <si>
-    <t>00476000949001 | SHAISTA | HBL ANNEXE.</t>
-  </si>
-  <si>
     <t>office</t>
   </si>
   <si>
@@ -229,6 +226,9 @@
   </si>
   <si>
     <t>pakistan3</t>
+  </si>
+  <si>
+    <t>00476000949001</t>
   </si>
 </sst>
 </file>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,7 +731,7 @@
         <v>21</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>38</v>
@@ -740,7 +740,7 @@
         <v>30</v>
       </c>
       <c r="W2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X2" t="s">
         <v>37</v>
@@ -823,7 +823,7 @@
         <v>21</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>38</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -879,7 +879,7 @@
         <v>47</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>54</v>
@@ -891,7 +891,7 @@
         <v>12345682</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>24</v>
@@ -915,7 +915,7 @@
         <v>21</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>38</v>
@@ -924,7 +924,7 @@
         <v>30</v>
       </c>
       <c r="W4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X4" t="s">
         <v>37</v>
